--- a/biology/Médecine/Artère_iliaque_interne/Artère_iliaque_interne.xlsx
+++ b/biology/Médecine/Artère_iliaque_interne/Artère_iliaque_interne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_iliaque_interne</t>
+          <t>Artère_iliaque_interne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les artères iliaques internes (ou hypogastriques) sont des artères systémiques amenant du sang oxygéné vers les membres inférieurs et le bassin. Il existe une artère iliaque interne droite et une iliaque interne gauche.
 Les artères iliaques internes sont issues des artères iliaques communes homolatérales au niveau du disque intervertébral L5-S1. Chaque artère se dirige vers le bas, l’arrière et en dedans. Elle se divise en deux troncs :
